--- a/48_fuction_desigin.xlsx
+++ b/48_fuction_desigin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\design_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A329D219-7BB1-406C-8E00-AB6AD4CEB661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846DB77-371A-49FF-8EA6-3216AE934B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,22 +183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・対象社員に紐づく全タスクを表示</t>
-    <rPh sb="1" eb="5">
-      <t>タイショウシャイン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>共通</t>
     <rPh sb="0" eb="2">
       <t>キョウツウ</t>
@@ -244,17 +228,6 @@
     <t>・社員情報</t>
     <rPh sb="1" eb="5">
       <t>シャインジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・社員ID
-⇒ 機能 No.1</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,44 +287,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・該当するタスクの詳細情報を表示
-・画面の右側に表示する
-⇒ クリックされたタイミングで
-　 ウィンドウを表示する</t>
-    <rPh sb="1" eb="3">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ショウサイジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・タスクID
 ⇒ ブラウザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・タスク詳細
-⇒ ブラウザ</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -647,6 +584,92 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・社員ID
+⇒ 機能 No.1
+・マイルストーン情報
+⇒ DB</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・対象社員に紐づく全タスクを表示
+（進行中のマイルストーンのみ）
+・ステータスでグループ分けを行う</t>
+    <rPh sb="1" eb="5">
+      <t>タイショウシャイン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シンコウチュウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・タスク詳細/スレッド情報
+⇒ ブラウザ</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・該当するタスクの詳細情報/スレッド情報
+　を表示
+・画面の右側に表示する
+⇒ クリックされたタイミングで
+　 ウィンドウを表示する</t>
+    <rPh sb="1" eb="3">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ショウサイジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,16 +827,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1109,7 +1132,7 @@
     <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.58203125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="20.58203125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.5" thickBot="1">
@@ -1143,25 +1166,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72.5" thickBot="1">
@@ -1169,38 +1192,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36.5" thickTop="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1220,9 +1243,9 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1236,70 +1259,70 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36">
+    <row r="6" spans="1:8" ht="72">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
+      <c r="F6" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="90">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="54">
@@ -1307,22 +1330,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
@@ -1333,22 +1356,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>13</v>
@@ -1359,23 +1382,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="10" t="s">
-        <v>46</v>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36">
@@ -1383,21 +1406,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="72">
@@ -1405,18 +1428,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>13</v>

--- a/48_fuction_desigin.xlsx
+++ b/48_fuction_desigin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapdo\myapp\design_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846DB77-371A-49FF-8EA6-3216AE934B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA529D-8041-47EF-867A-D5CCA29D76F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -313,23 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・画面上のステータス変更を検知
-・ステータスを自動更新</t>
-    <rPh sb="1" eb="4">
-      <t>ガメンジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>ジドウコウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・タスクID / 変更後のステータス
 ⇒ ブラウザ</t>
     <rPh sb="9" eb="12">
@@ -538,37 +521,6 @@
     <t>Slack APIからの
 レスポンス
 （ステータスコード）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・バリデーション（未入力、文字数）
-・タスク / 社員の存在チェック
-・スレッドをDBに保存
-・宛先の社員に通知</t>
-    <rPh sb="9" eb="12">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>アテサキ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ツウチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -670,6 +622,87 @@
     </rPh>
     <rPh sb="62" eb="64">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・画面上のステータス変更を検知
+・ステータスを自動更新
+・受け取ったステータスの変更可否を
+　チェック</t>
+    <rPh sb="1" eb="4">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ジドウコウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ヘンコウカヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slackエラーチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slack APIの実行時</t>
+    <rPh sb="10" eb="13">
+      <t>ジッコウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・APIレスポンスを見て、エラーが
+　起きていないかチェックする</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バリデーション（未入力、文字数）
+・タスク / 社員の存在チェック
+・スレッドをDBに保存
+・宛先の社員に通知（エラーチェック）</t>
+    <rPh sb="9" eb="12">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ツウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -809,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -838,6 +871,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1187,7 +1223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72.5" thickBot="1">
+    <row r="3" spans="1:8" ht="72">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1198,162 +1234,158 @@
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="36.5" thickTop="1">
+    </row>
+    <row r="4" spans="1:8" ht="36.5" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="36.5" thickTop="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36">
-      <c r="A5" s="4">
+    <row r="6" spans="1:8" ht="36">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="72">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="90">
+    <row r="8" spans="1:8" ht="72">
       <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54">
-      <c r="A9" s="4">
+      <c r="H9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72">
+      <c r="A10" s="4">
         <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="36">
-      <c r="A10" s="4">
-        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
@@ -1361,17 +1393,17 @@
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>13</v>
@@ -1379,81 +1411,97 @@
     </row>
     <row r="11" spans="1:8" ht="36">
       <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36">
       <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4"/>
+      <c r="H13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="72">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4"/>
@@ -1615,14 +1663,24 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
